--- a/_site/assessments/BCB744_Task_A_Name_Surname.xlsx
+++ b/_site/assessments/BCB744_Task_A_Name_Surname.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajsmit/Documents/R_local/tangled_bank/assessments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B398293D-2788-3D42-B4B0-515E4A39B090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAD033E-2B4A-E740-9E8D-88BA4343DB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27040" yWindow="4700" windowWidth="28040" windowHeight="17440" xr2:uid="{A6DFEAAA-4AB5-6E4A-B924-4A358123E90B}"/>
   </bookViews>
@@ -151,15 +151,21 @@
       <name val="Aptos"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -167,11 +173,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -179,8 +200,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,7 +541,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,7 +576,7 @@
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -564,9 +587,7 @@
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
+      <c r="B7" s="5"/>
       <c r="C7">
         <v>1</v>
       </c>
@@ -575,9 +596,7 @@
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
+      <c r="B8" s="5"/>
       <c r="C8">
         <v>3</v>
       </c>
@@ -586,9 +605,7 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
+      <c r="B9" s="5"/>
       <c r="C9">
         <v>3</v>
       </c>
@@ -597,9 +614,7 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
+      <c r="B10" s="5"/>
       <c r="C10">
         <v>3</v>
       </c>
@@ -608,9 +623,7 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
+      <c r="B11" s="5"/>
       <c r="C11">
         <v>4</v>
       </c>
@@ -619,9 +632,7 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
+      <c r="B12" s="5"/>
       <c r="C12">
         <v>2</v>
       </c>
@@ -630,9 +641,7 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
+      <c r="B13" s="5"/>
       <c r="C13">
         <v>2</v>
       </c>
@@ -641,9 +650,7 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
+      <c r="B14" s="5"/>
       <c r="C14">
         <v>2</v>
       </c>
@@ -652,9 +659,7 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
+      <c r="B15" s="5"/>
       <c r="C15">
         <v>6</v>
       </c>
@@ -663,9 +668,7 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
+      <c r="B16" s="5"/>
       <c r="C16">
         <v>14</v>
       </c>
@@ -674,9 +677,7 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
+      <c r="B17" s="5"/>
       <c r="C17">
         <v>3</v>
       </c>
@@ -685,9 +686,7 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
+      <c r="B18" s="5"/>
       <c r="C18">
         <v>3</v>
       </c>
@@ -696,9 +695,7 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
+      <c r="B19" s="5"/>
       <c r="C19">
         <v>3</v>
       </c>
@@ -707,9 +704,7 @@
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
+      <c r="B20" s="5"/>
       <c r="C20">
         <v>1</v>
       </c>
@@ -718,9 +713,7 @@
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
+      <c r="B21" s="5"/>
       <c r="C21">
         <v>5</v>
       </c>
@@ -729,9 +722,7 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
+      <c r="B22" s="5"/>
       <c r="C22">
         <v>5</v>
       </c>
@@ -740,9 +731,7 @@
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
+      <c r="B23" s="5"/>
       <c r="C23">
         <v>5</v>
       </c>
@@ -750,7 +739,7 @@
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25">
         <f>SUM(B7:B23)</f>
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <f>SUM(C7:C23)</f>
@@ -761,28 +750,30 @@
       <c r="A27" t="s">
         <v>25</v>
       </c>
+      <c r="B27" s="5"/>
     </row>
     <row r="28" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="4">
+      <c r="B29" s="3">
         <f>((B25/C25)*100)/2</f>
-        <v>39.230769230769234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="4">
-        <f>SUM(C27:C29)</f>
-        <v>39.230769230769234</v>
+      <c r="B31" s="6">
+        <f>SUM(B27:B29)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
